--- a/자동조회.xlsx
+++ b/자동조회.xlsx
@@ -528,13 +528,13 @@
         <v>609840</v>
       </c>
       <c r="B2" t="n">
-        <v>2221776</v>
+        <v>1080128</v>
       </c>
       <c r="C2" t="n">
-        <v>180144</v>
+        <v>115866</v>
       </c>
       <c r="D2" t="n">
-        <v>100080</v>
+        <v>64370</v>
       </c>
       <c r="E2" t="n">
         <v>-6098</v>
@@ -546,10 +546,10 @@
         <v>-200</v>
       </c>
       <c r="H2" t="n">
-        <v>114880</v>
+        <v>68940</v>
       </c>
       <c r="I2" t="n">
-        <v>3537920</v>
+        <v>2126180</v>
       </c>
     </row>
     <row r="4">
@@ -576,16 +576,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>48810</v>
+        <v>30110</v>
       </c>
       <c r="B5" t="n">
-        <v>28680</v>
+        <v>12900</v>
       </c>
       <c r="C5" t="n">
-        <v>6260</v>
+        <v>2900</v>
       </c>
       <c r="D5" t="n">
-        <v>83750</v>
+        <v>45910</v>
       </c>
     </row>
   </sheetData>

--- a/자동조회.xlsx
+++ b/자동조회.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -133,10 +133,10 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3048000" cy="2095500"/>
+    <ext cx="3048000" cy="1905000"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -153,15 +153,15 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>5</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3048000" cy="2095500"/>
+    <ext cx="3048000" cy="1905000"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,22 +504,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>자동납부할인</t>
+          <t>전력기금</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>인터넷할인</t>
+          <t>청구요금</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>전력기금</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>청구요금</t>
+          <t>사용요금</t>
         </is>
       </c>
     </row>
@@ -528,28 +523,25 @@
         <v>609840</v>
       </c>
       <c r="B2" t="n">
-        <v>1080128</v>
+        <v>1943508</v>
       </c>
       <c r="C2" t="n">
-        <v>115866</v>
+        <v>146988</v>
       </c>
       <c r="D2" t="n">
-        <v>64370</v>
+        <v>81660</v>
       </c>
       <c r="E2" t="n">
         <v>-6098</v>
       </c>
       <c r="F2" t="n">
-        <v>-500</v>
+        <v>102700</v>
       </c>
       <c r="G2" t="n">
-        <v>-200</v>
+        <v>3163680</v>
       </c>
       <c r="H2" t="n">
-        <v>68940</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2126180</v>
+        <v>2172156</v>
       </c>
     </row>
     <row r="4">
@@ -576,20 +568,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30110</v>
+        <v>65810</v>
       </c>
       <c r="B5" t="n">
-        <v>12900</v>
+        <v>43020</v>
       </c>
       <c r="C5" t="n">
-        <v>2900</v>
+        <v>9480</v>
       </c>
       <c r="D5" t="n">
-        <v>45910</v>
+        <v>118310</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/자동조회.xlsx
+++ b/자동조회.xlsx
@@ -523,25 +523,25 @@
         <v>609840</v>
       </c>
       <c r="B2" t="n">
-        <v>1943508</v>
+        <v>1985158</v>
       </c>
       <c r="C2" t="n">
-        <v>146988</v>
+        <v>150138</v>
       </c>
       <c r="D2" t="n">
-        <v>81660</v>
+        <v>83410</v>
       </c>
       <c r="E2" t="n">
         <v>-6098</v>
       </c>
       <c r="F2" t="n">
-        <v>102700</v>
+        <v>90310</v>
       </c>
       <c r="G2" t="n">
-        <v>3163680</v>
+        <v>3195000</v>
       </c>
       <c r="H2" t="n">
-        <v>2172156</v>
+        <v>2218706</v>
       </c>
     </row>
     <row r="4">
@@ -568,16 +568,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65810</v>
+        <v>56500</v>
       </c>
       <c r="B5" t="n">
-        <v>43020</v>
+        <v>32260</v>
       </c>
       <c r="C5" t="n">
-        <v>9480</v>
+        <v>7110</v>
       </c>
       <c r="D5" t="n">
-        <v>118310</v>
+        <v>95870</v>
       </c>
     </row>
   </sheetData>
